--- a/iselUssSyncV2/OutputWSL/20220426_1020_D50L474W90Q30.0U0.40H94G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1020_D50L474W90Q30.0U0.40H94G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>94.747826086956508</v>
+        <v>94.748756853977511</v>
       </c>
       <c r="F2" s="0">
-        <v>94.625652173913053</v>
+        <v>94.626582940933986</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>94.99829365079367</v>
+        <v>95.000568859067158</v>
       </c>
       <c r="F3" s="0">
-        <v>96.10674603174607</v>
+        <v>96.10902124001953</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>93.704150197628451</v>
+        <v>93.706901131268197</v>
       </c>
       <c r="F4" s="0">
-        <v>97.916600790513868</v>
+        <v>97.919351724153557</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>92.919087301587268</v>
+        <v>92.921893391791244</v>
       </c>
       <c r="F5" s="0">
-        <v>98.580555555555534</v>
+        <v>98.583361645759538</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>91.443293650793663</v>
+        <v>91.446148002991322</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>88.636892430278905</v>
+        <v>88.639788149899658</v>
       </c>
       <c r="F7" s="0">
-        <v>98.689243027888409</v>
+        <v>98.692138747509276</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>84.105737051792801</v>
+        <v>84.108667244266258</v>
       </c>
       <c r="F8" s="0">
-        <v>92.409083665338628</v>
+        <v>92.412013857812113</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>81.598764940239064</v>
+        <v>81.601706991373788</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -278,7 +278,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>78.419960317460323</v>
+        <v>78.422913124125117</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -296,7 +296,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>75.152857142857101</v>
+        <v>75.155819601920598</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -314,7 +314,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>73.565936254980073</v>
+        <v>73.568903126568728</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -332,7 +332,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>71.928127490039856</v>
+        <v>71.931098498370773</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -350,7 +350,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>69.923174603174616</v>
+        <v>69.926149472465042</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -368,7 +368,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>68.192936507936494</v>
+        <v>68.195914962403634</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -386,10 +386,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>64.852222222222238</v>
+        <v>64.85520701969422</v>
       </c>
       <c r="F16" s="0">
-        <v>28.727301587301586</v>
+        <v>28.730286384773578</v>
       </c>
     </row>
     <row r="17">
@@ -406,10 +406,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>61.284741035856563</v>
+        <v>61.28773107320216</v>
       </c>
       <c r="F17" s="0">
-        <v>27.790756972111552</v>
+        <v>27.793747009457149</v>
       </c>
     </row>
     <row r="18">
@@ -426,10 +426,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>58.348924302788859</v>
+        <v>58.351918476876747</v>
       </c>
       <c r="F18" s="0">
-        <v>27.752828685258962</v>
+        <v>27.755822859346868</v>
       </c>
     </row>
     <row r="19">
@@ -446,10 +446,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>52.692261904761914</v>
+        <v>52.695261042940587</v>
       </c>
       <c r="F19" s="0">
-        <v>28.781111111111116</v>
+        <v>28.7841102492898</v>
       </c>
     </row>
     <row r="20">
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>46.704166666666659</v>
+        <v>46.707165804845367</v>
       </c>
       <c r="F20" s="0">
-        <v>30.891865079365083</v>
+        <v>30.894864217543766</v>
       </c>
     </row>
     <row r="21">
@@ -486,10 +486,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>41.809561752988053</v>
+        <v>41.812553996596201</v>
       </c>
       <c r="F21" s="0">
-        <v>41.987529880478085</v>
+        <v>41.990522124086255</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +506,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>37.665816733067736</v>
+        <v>37.668795187534812</v>
       </c>
       <c r="F22" s="0">
-        <v>67.447968127490029</v>
+        <v>67.450946581957155</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +526,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>34.876294820717156</v>
+        <v>34.879252591472685</v>
       </c>
       <c r="F23" s="0">
-        <v>71.462231075697204</v>
+        <v>71.465188846452733</v>
       </c>
     </row>
     <row r="24">
@@ -546,10 +546,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>32.545873015873006</v>
+        <v>32.548768735493816</v>
       </c>
       <c r="F24" s="0">
-        <v>52.000793650793646</v>
+        <v>52.003689370414449</v>
       </c>
     </row>
     <row r="25">
@@ -566,10 +566,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>35.531190476190481</v>
+        <v>35.533996566394428</v>
       </c>
       <c r="F25" s="0">
-        <v>48.320595238095237</v>
+        <v>48.323401328299198</v>
       </c>
     </row>
     <row r="26">
@@ -586,10 +586,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>49.509761904761902</v>
+        <v>49.512450787266928</v>
       </c>
       <c r="F26" s="0">
-        <v>48.59678571428573</v>
+        <v>48.599474596790756</v>
       </c>
     </row>
     <row r="27">
@@ -606,10 +606,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>63.27541832669322</v>
+        <v>63.277962423217232</v>
       </c>
       <c r="F27" s="0">
-        <v>46.661752988047802</v>
+        <v>46.664297084571793</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +626,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>47.377689243027902</v>
+        <v>47.38006097528875</v>
       </c>
       <c r="F28" s="0">
-        <v>55.961752988047806</v>
+        <v>55.964124720308661</v>
       </c>
     </row>
     <row r="29">
@@ -646,10 +646,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>60.036055776892425</v>
+        <v>60.038227566608022</v>
       </c>
       <c r="F29" s="0">
-        <v>66.643984063745023</v>
+        <v>66.646155853460613</v>
       </c>
     </row>
     <row r="30">
@@ -666,10 +666,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>49.270996015936255</v>
+        <v>49.272685185715048</v>
       </c>
       <c r="F30" s="0">
-        <v>59.166015936254986</v>
+        <v>59.167705106033786</v>
       </c>
     </row>
   </sheetData>
